--- a/info/links.xlsx
+++ b/info/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projects\ozon_dataset\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6D983-1A31-4205-88E6-DC9140A9B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDEBFC9-7525-4371-B3DE-08CE1DF8920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="5" xr2:uid="{5DAE5E3B-B998-400C-B020-F94AF6031BF4}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4460" uniqueCount="3820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="3843">
   <si>
     <t>Label</t>
   </si>
@@ -11545,13 +11545,83 @@
   <si>
     <t>Какой процент общего оборота приходится на конкретный бренд, продавца, схему, зону продаж или ценовой сегмент. _x000D_
 Общий оборот — это оборот категории, продавцов и брендов, выбранных в фильтре с учетом настроенного фильтра по полу</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Average price</t>
+  </si>
+  <si>
+    <t>Average price dynamics</t>
+  </si>
+  <si>
+    <t>Number of sellers</t>
+  </si>
+  <si>
+    <t>Number of clusters</t>
+  </si>
+  <si>
+    <t>Share in category</t>
+  </si>
+  <si>
+    <t>Ordered total</t>
+  </si>
+  <si>
+    <t>Orders total dynamics</t>
+  </si>
+  <si>
+    <t>Products ordered</t>
+  </si>
+  <si>
+    <t>Redeemed orders share</t>
+  </si>
+  <si>
+    <t>Details on best-selling brands in the selected category</t>
+  </si>
+  <si>
+    <t>Total cost of ordered products</t>
+  </si>
+  <si>
+    <t>Change in the total cost of ordered goods  compared to the previous period</t>
+  </si>
+  <si>
+    <t>Total number of products ordered</t>
+  </si>
+  <si>
+    <t>The average price that sellers have set for   product, without   taking into account the additional discount, for   for which we award points</t>
+  </si>
+  <si>
+    <t>Change in the average price that sellers have set for product, without taking into account the additional discount for  for which we award points in comparison with</t>
+  </si>
+  <si>
+    <t>Number of sellers that have at least 1 product sold</t>
+  </si>
+  <si>
+    <t>Percentage of ordered products that were not canceled or returned</t>
+  </si>
+  <si>
+    <t>What percentage of the total turnover comes from a particular brand, seller, scheme, sales area or price segment.
+Total turnover is the turnover of the category, sellers and brands selected in the filter by gender</t>
+  </si>
+  <si>
+    <t>Category or cubcategory of product</t>
+  </si>
+  <si>
+    <t>The number of clusters in which at least 1 product of the category has been ordered (cluster - geographical unit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11560,21 +11630,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF46515B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF707B83"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11587,13 +11644,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FB"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -11601,46 +11653,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0DBE4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0DBE4"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0DBE4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0DBE4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0DBE4"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0DBE4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0DBE4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -35933,96 +35954,169 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD28E47-8CE9-48BF-8F6E-A4D2BBDCA7DE}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104.59765625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="67.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="67.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.6">
+      <c r="A2" t="s">
         <v>3800</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3810</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6">
-      <c r="A2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.6">
+      <c r="A3" t="s">
         <v>3801</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3811</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6">
+      <c r="A4" t="s">
         <v>3802</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3812</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
-      <c r="A4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>3803</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>3813</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6">
-      <c r="A5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>3830</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.6">
+      <c r="A6" t="s">
         <v>3804</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.4">
-      <c r="A6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41.4">
+      <c r="A7" t="s">
         <v>3805</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>3815</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6">
-      <c r="A7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>3806</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>3816</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6">
-      <c r="A8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="27.6">
+      <c r="A9" t="s">
         <v>3807</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>3817</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6">
-      <c r="A9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>3808</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>3818</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="26.4">
-      <c r="A10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="55.2">
+      <c r="A11" t="s">
         <v>3809</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>3819</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3840</v>
       </c>
     </row>
   </sheetData>
